--- a/inst/results/data_benthos/abundance_prop_species.xlsx
+++ b/inst/results/data_benthos/abundance_prop_species.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,7 +360,7 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>ESTUARY</t>
+          <t>estuary</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -767,16 +767,16 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Errantia</t>
+          <t>Polychaeta incertae sedis</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Microphthalmus</t>
+          <t>Owenia fusiformis</t>
         </is>
       </c>
       <c r="G12">
-        <v>28.30508474576271</v>
+        <v>29.0755723876743</v>
       </c>
     </row>
     <row r="13">
@@ -792,61 +792,26 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Arthropoda</t>
+          <t>Mollusca</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Crustacea</t>
+          <t>Bivalvia</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Multicrustacea</t>
+          <t>Autobranchia</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Haustorius arenarius</t>
+          <t>Abra alba</t>
         </is>
       </c>
       <c r="G13">
-        <v>18.47457627118644</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Seine</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>subtidal</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Arthropoda</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Crustacea</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Multicrustacea</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Bathyporeia pilosa</t>
-        </is>
-      </c>
-      <c r="G14">
-        <v>13.38983050847458</v>
+        <v>16.04406954725426</v>
       </c>
     </row>
   </sheetData>
